--- a/Backend/weather/processing data.xlsx
+++ b/Backend/weather/processing data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C252"/>
+  <dimension ref="A1:E252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,6 +437,16 @@
           <t>127</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>37.5703777777777</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>126.981641666666</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -454,6 +464,16 @@
           <t>127</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.5610027777777</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>126.999641666666</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -471,6 +491,16 @@
           <t>126</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.5360944444444</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>126.967522222222</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -488,6 +518,16 @@
           <t>127</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.5606111111111</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>127.039</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -505,6 +545,16 @@
           <t>126</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.5357388888888</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>127.084533333333</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -522,6 +572,16 @@
           <t>127</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37.571625</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>127.042141666666</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -539,6 +599,16 @@
           <t>128</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>37.6038055555555</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>127.094777777777</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -556,6 +626,16 @@
           <t>127</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>37.5863833333333</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>127.020333333333</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -573,6 +653,16 @@
           <t>128</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>37.6369555555555</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>127.027719444444</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -590,6 +680,16 @@
           <t>129</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>37.6658333333333</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>127.049522222222</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -607,6 +707,16 @@
           <t>129</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>37.6514611111111</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>127.058388888888</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -624,6 +734,16 @@
           <t>127</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>37.5999694444444</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>126.931241666666</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -641,6 +761,16 @@
           <t>127</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>37.5763666666666</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>126.938897222222</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -658,6 +788,16 @@
           <t>127</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>37.5607055555555</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>126.910530555555</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -675,6 +815,16 @@
           <t>126</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>37.5142305555555</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>126.868708333333</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -692,6 +842,16 @@
           <t>126</t>
         </is>
       </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>37.5481555555555</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>126.851675</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -709,6 +869,16 @@
           <t>125</t>
         </is>
       </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>37.49265</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>126.889597222222</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -726,6 +896,16 @@
           <t>124</t>
         </is>
       </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>37.4491083333333</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>126.904197222222</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -743,6 +923,16 @@
           <t>126</t>
         </is>
       </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>37.5236111111111</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>126.898341666666</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -760,6 +950,16 @@
           <t>125</t>
         </is>
       </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>37.5096555555555</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>126.941575</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -777,6 +977,16 @@
           <t>125</t>
         </is>
       </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>37.4753861111111</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>126.953844444444</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -794,6 +1004,16 @@
           <t>125</t>
         </is>
       </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>37.4807861111111</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>127.034811111111</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -811,6 +1031,16 @@
           <t>126</t>
         </is>
       </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>37.514575</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>127.049555555555</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -828,6 +1058,16 @@
           <t>126</t>
         </is>
       </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>37.5117555555555</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>127.107930555555</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -845,6 +1085,16 @@
           <t>126</t>
         </is>
       </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>37.5273666666666</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>127.125863888888</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -862,6 +1112,16 @@
           <t>74</t>
         </is>
       </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>35.1032166666666</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>129.034508333333</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -879,6 +1139,16 @@
           <t>74</t>
         </is>
       </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>35.0948361111111</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>129.026377777777</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -896,6 +1166,16 @@
           <t>75</t>
         </is>
       </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>35.1358944444444</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>129.059175</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -913,6 +1193,16 @@
           <t>74</t>
         </is>
       </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>35.0881166666666</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>129.070186111111</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -930,6 +1220,16 @@
           <t>75</t>
         </is>
       </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>35.1599527777777</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>129.055319444444</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -947,6 +1247,16 @@
           <t>76</t>
         </is>
       </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>35.2018722222222</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>129.085855555555</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -964,6 +1274,16 @@
           <t>75</t>
         </is>
       </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>35.1334083333333</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>129.0865</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -981,6 +1301,16 @@
           <t>76</t>
         </is>
       </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>35.1941805555555</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>128.992474999999</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -998,6 +1328,16 @@
           <t>75</t>
         </is>
       </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>35.1600194444444</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>129.165808333333</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1015,6 +1355,16 @@
           <t>74</t>
         </is>
       </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>35.1014277777777</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>128.977041666666</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1032,6 +1382,16 @@
           <t>77</t>
         </is>
       </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>35.2400777777777</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>129.094319444444</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1049,6 +1409,16 @@
           <t>76</t>
         </is>
       </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>35.2091638888888</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>128.982908333333</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1066,6 +1436,16 @@
           <t>76</t>
         </is>
       </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>35.1731861111111</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>129.082075</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1083,6 +1463,16 @@
           <t>75</t>
         </is>
       </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>35.1424666666666</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>129.115375</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1100,6 +1490,16 @@
           <t>75</t>
         </is>
       </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>35.1494666666666</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>128.993333333333</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1117,6 +1517,16 @@
           <t>77</t>
         </is>
       </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>35.24135</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>129.224475</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1134,6 +1544,16 @@
           <t>90</t>
         </is>
       </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>35.8662861111111</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>128.608397222222</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1151,6 +1571,16 @@
           <t>91</t>
         </is>
       </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>35.8836166666666</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>128.637711111111</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1168,6 +1598,16 @@
           <t>90</t>
         </is>
       </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>35.8687944444444</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>128.561411111111</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1185,6 +1625,16 @@
           <t>90</t>
         </is>
       </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>35.8429777777777</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>128.5998</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1202,6 +1652,16 @@
           <t>91</t>
         </is>
       </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>35.8827</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>128.585022222222</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1219,6 +1679,16 @@
           <t>90</t>
         </is>
       </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>35.8552083333333</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>128.632866666666</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1236,6 +1706,16 @@
           <t>90</t>
         </is>
       </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>35.8269277777777</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>128.535063888888</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1253,6 +1733,16 @@
           <t>88</t>
         </is>
       </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>35.7716805555555</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>128.433274999999</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1270,6 +1760,16 @@
           <t>99</t>
         </is>
       </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>36.2399972222222</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>128.575077777777</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1287,6 +1787,16 @@
           <t>125</t>
         </is>
       </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>37.4709333333333</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>126.623566666666</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1304,6 +1814,16 @@
           <t>125</t>
         </is>
       </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>37.4710361111111</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>126.645366666666</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1321,6 +1841,16 @@
           <t>124</t>
         </is>
       </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>37.4606805555555</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>126.652686111111</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1338,6 +1868,16 @@
           <t>123</t>
         </is>
       </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>37.4071222222222</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>126.680441666666</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1355,6 +1895,16 @@
           <t>124</t>
         </is>
       </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>37.4445194444444</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>126.733797222222</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1372,6 +1922,16 @@
           <t>125</t>
         </is>
       </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>37.5042666666666</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>126.7241</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1389,6 +1949,16 @@
           <t>126</t>
         </is>
       </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>37.5347916666666</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>126.739752777777</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1406,6 +1976,16 @@
           <t>126</t>
         </is>
       </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>37.5426916666666</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>126.6782</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1423,6 +2003,16 @@
           <t>130</t>
         </is>
       </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>37.7438583333333</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>126.49</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1440,6 +2030,16 @@
           <t>124</t>
         </is>
       </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>37.4437249999999</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>126.638888888888</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1457,6 +2057,16 @@
           <t>74</t>
         </is>
       </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>35.1431</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>126.925177777777</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1474,6 +2084,16 @@
           <t>74</t>
         </is>
       </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>35.1494833333333</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>126.893411111111</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1491,6 +2111,16 @@
           <t>73</t>
         </is>
       </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>35.1190361111111</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>126.910144444444</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1508,6 +2138,16 @@
           <t>75</t>
         </is>
       </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>35.1711249999999</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>126.914122222222</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1525,6 +2165,16 @@
           <t>74</t>
         </is>
       </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>35.1364277777777</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>126.795788888888</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1542,6 +2192,16 @@
           <t>100</t>
         </is>
       </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>36.3241333333333</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>127.434852777777</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1559,6 +2219,16 @@
           <t>100</t>
         </is>
       </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>36.3226305555555</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>127.423111111111</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1576,6 +2246,16 @@
           <t>100</t>
         </is>
       </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>36.3524833333333</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>127.385775</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1593,6 +2273,16 @@
           <t>101</t>
         </is>
       </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>36.3593666666666</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>127.358341666666</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1610,6 +2300,16 @@
           <t>100</t>
         </is>
       </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>36.3437944444444</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>127.417686111111</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1627,6 +2327,16 @@
           <t>84</t>
         </is>
       </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>35.5663416666666</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>129.334875</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1644,6 +2354,16 @@
           <t>84</t>
         </is>
       </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>35.5407638888888</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>129.332386111111</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1661,6 +2381,16 @@
           <t>83</t>
         </is>
       </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>35.5018888888888</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>129.418952777777</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1678,6 +2408,16 @@
           <t>85</t>
         </is>
       </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>35.5796888888888</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>129.363544444444</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1695,6 +2435,16 @@
           <t>84</t>
         </is>
       </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>35.5307388888888</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>129.297163888888</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1712,6 +2462,16 @@
           <t>103</t>
         </is>
       </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>36.4800121</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>127.2890691</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1729,6 +2489,16 @@
           <t>121</t>
         </is>
       </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>37.3010111111111</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>127.012222222222</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1746,6 +2516,16 @@
           <t>120</t>
         </is>
       </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>37.2547333333333</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>126.974075</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1763,6 +2543,16 @@
           <t>121</t>
         </is>
       </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>37.2831027777777</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>127.037833333333</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1780,6 +2570,16 @@
           <t>120</t>
         </is>
       </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>37.2563111111111</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>127.048633333333</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1797,6 +2597,16 @@
           <t>124</t>
         </is>
       </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>37.4474916666666</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>127.147719444444</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1814,6 +2624,16 @@
           <t>124</t>
         </is>
       </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>37.4276694444444</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>127.139419444444</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1831,6 +2651,16 @@
           <t>123</t>
         </is>
       </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>37.3799694444444</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>127.121019444444</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1848,6 +2678,16 @@
           <t>130</t>
         </is>
       </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>37.7352888888888</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>127.035841666666</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1865,6 +2705,16 @@
           <t>123</t>
         </is>
       </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>37.3837777777777</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>126.9345</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1882,6 +2732,16 @@
           <t>123</t>
         </is>
       </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>37.3897</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>126.953355555555</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1899,6 +2759,16 @@
           <t>125</t>
         </is>
       </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>37.496592521818</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>126.786997023532</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1916,6 +2786,16 @@
           <t>125</t>
         </is>
       </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>37.4800388849706</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>126.799941264535</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1933,6 +2813,16 @@
           <t>126</t>
         </is>
       </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>37.5283481619767</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>126.795813092311</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1950,6 +2840,16 @@
           <t>125</t>
         </is>
       </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>37.47575</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>126.866708333333</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1967,6 +2867,16 @@
           <t>114</t>
         </is>
       </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>36.9894388888888</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>127.114655555555</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1984,6 +2894,16 @@
           <t>134</t>
         </is>
       </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>37.9009166666666</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>127.062652777777</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2001,6 +2921,16 @@
           <t>121</t>
         </is>
       </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>37.2985194444444</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>126.846819444444</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2018,6 +2948,16 @@
           <t>121</t>
         </is>
       </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>37.3167277777777</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>126.814419444444</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2035,6 +2975,16 @@
           <t>128</t>
         </is>
       </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>37.6345833333333</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>126.834197222222</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2052,6 +3002,16 @@
           <t>129</t>
         </is>
       </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>37.6559083333333</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>126.777055555555</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2069,6 +3029,16 @@
           <t>129</t>
         </is>
       </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>37.6724861111111</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>126.752777777777</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2086,6 +3056,16 @@
           <t>124</t>
         </is>
       </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>37.4263722222222</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>126.9898</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2103,6 +3083,16 @@
           <t>127</t>
         </is>
       </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>37.591625</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>127.131863888888</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2120,6 +3110,16 @@
           <t>128</t>
         </is>
       </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>37.6331777777777</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>127.218633333333</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2137,6 +3137,16 @@
           <t>118</t>
         </is>
       </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>37.1469138888888</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>127.079641666666</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2154,6 +3164,16 @@
           <t>123</t>
         </is>
       </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>37.3773194444444</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>126.805077777777</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2171,6 +3191,16 @@
           <t>122</t>
         </is>
       </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>37.3586583333333</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>126.9375</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2188,6 +3218,16 @@
           <t>122</t>
         </is>
       </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>37.34195</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>126.970388888888</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2205,6 +3245,16 @@
           <t>126</t>
         </is>
       </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>37.5364972222222</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>127.217</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2222,6 +3272,16 @@
           <t>119</t>
         </is>
       </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>37.2314777777777</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>127.203844444444</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2239,6 +3299,16 @@
           <t>120</t>
         </is>
       </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>37.2775972222222</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>127.116788888888</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2256,6 +3326,16 @@
           <t>121</t>
         </is>
       </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>37.3193861111111</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>127.100097222222</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2273,6 +3353,16 @@
           <t>131</t>
         </is>
       </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>37.7570833333333</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>126.781952777777</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2290,6 +3380,16 @@
           <t>121</t>
         </is>
       </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>37.2754361111111</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>127.443219444444</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2307,6 +3407,16 @@
           <t>115</t>
         </is>
       </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>37.005175</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>127.281844444444</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2324,6 +3434,16 @@
           <t>128</t>
         </is>
       </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>37.6124583333333</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>126.717777777777</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2341,6 +3461,16 @@
           <t>119</t>
         </is>
       </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>37.1968166666666</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>126.833530555555</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2358,6 +3488,16 @@
           <t>123</t>
         </is>
       </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>37.4145055555555</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>127.257786111111</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2375,6 +3515,16 @@
           <t>131</t>
         </is>
       </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>37.78245</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>127.047819444444</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2392,6 +3542,16 @@
           <t>134</t>
         </is>
       </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>37.8921555555555</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>127.202419444444</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -2409,6 +3569,16 @@
           <t>121</t>
         </is>
       </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>37.2953583333333</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>127.639622222222</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -2426,6 +3596,16 @@
           <t>138</t>
         </is>
       </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>38.0933638888888</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>127.077066666666</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -2443,6 +3623,16 @@
           <t>133</t>
         </is>
       </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>37.8288305555555</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>127.511777777777</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -2460,6 +3650,16 @@
           <t>125</t>
         </is>
       </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>37.4889361111111</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>127.489886111111</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -2477,6 +3677,16 @@
           <t>106</t>
         </is>
       </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>36.5839972222222</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>127.511730555555</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -2494,6 +3704,16 @@
           <t>107</t>
         </is>
       </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>36.6372611111111</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>127.483288888888</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -2511,6 +3731,16 @@
           <t>106</t>
         </is>
       </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>36.6182</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>127.359419444444</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -2528,6 +3758,16 @@
           <t>107</t>
         </is>
       </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>36.6443055555555</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>127.487663888888</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -2545,6 +3785,16 @@
           <t>114</t>
         </is>
       </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>36.9881805555555</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>127.928144444444</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -2562,6 +3812,16 @@
           <t>118</t>
         </is>
       </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>37.1297694444444</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>128.193152777777</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -2579,6 +3839,16 @@
           <t>103</t>
         </is>
       </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>36.4865333333333</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>127.731608333333</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -2596,6 +3866,16 @@
           <t>99</t>
         </is>
       </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>36.3035499999999</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>127.573633333333</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -2613,6 +3893,16 @@
           <t>97</t>
         </is>
       </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>36.1720583333333</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>127.785611111111</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -2630,6 +3920,16 @@
           <t>110</t>
         </is>
       </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>36.7821805555555</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>127.583288888888</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -2647,6 +3947,16 @@
           <t>111</t>
         </is>
       </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>36.8525388888888</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>127.437644444444</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -2664,6 +3974,16 @@
           <t>111</t>
         </is>
       </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>36.8124305555555</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>127.788830555555</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -2681,6 +4001,16 @@
           <t>113</t>
         </is>
       </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>36.9374055555555</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>127.692622222222</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -2698,6 +4028,16 @@
           <t>115</t>
         </is>
       </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>36.9817805555555</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>128.367841666666</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -2715,6 +4055,16 @@
           <t>110</t>
         </is>
       </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>36.804125</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>127.152466666666</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -2732,6 +4082,16 @@
           <t>112</t>
         </is>
       </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>36.8755583333333</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>127.157197222222</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -2749,6 +4109,16 @@
           <t>102</t>
         </is>
       </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>36.4436138888888</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>127.121119444444</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -2766,6 +4136,16 @@
           <t>100</t>
         </is>
       </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>36.330575</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>126.614886111111</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -2783,6 +4163,16 @@
           <t>110</t>
         </is>
       </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>36.7871055555555</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>127.004641666666</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -2800,6 +4190,16 @@
           <t>110</t>
         </is>
       </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>36.7820972222222</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>126.452163888888</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -2817,6 +4217,16 @@
           <t>97</t>
         </is>
       </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>36.1842027777777</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>127.100911111111</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -2834,6 +4244,16 @@
           <t>99</t>
         </is>
       </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>36.2718361111111</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>127.250930555555</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -2851,6 +4271,16 @@
           <t>112</t>
         </is>
       </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>36.89075</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>126.630252777777</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -2868,6 +4298,16 @@
           <t>95</t>
         </is>
       </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>36.1058694444444</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>127.490308333333</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -2885,6 +4325,16 @@
           <t>99</t>
         </is>
       </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>36.2728222222222</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>126.911863888888</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -2902,6 +4352,16 @@
           <t>94</t>
         </is>
       </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>36.0774055555555</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>126.693888888888</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -2919,6 +4379,16 @@
           <t>103</t>
         </is>
       </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>36.4562694444444</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>126.804255555555</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -2936,6 +4406,16 @@
           <t>106</t>
         </is>
       </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>36.5983611111111</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>126.662908333333</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -2953,6 +4433,16 @@
           <t>107</t>
         </is>
       </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>36.6798055555555</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>126.850874999999</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -2970,6 +4460,16 @@
           <t>109</t>
         </is>
       </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>36.7426666666666</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>126.299975</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -2987,6 +4487,16 @@
           <t>89</t>
         </is>
       </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>35.8091888888888</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>127.121919444444</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -3004,6 +4514,16 @@
           <t>89</t>
         </is>
       </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>35.8263861111111</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>127.136419444444</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -3021,6 +4541,16 @@
           <t>92</t>
         </is>
       </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>35.9646416666666</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>126.738844444444</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -3038,6 +4568,16 @@
           <t>91</t>
         </is>
       </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>35.9452749999999</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>126.959852777777</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -3055,6 +4595,16 @@
           <t>83</t>
         </is>
       </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>35.5668722222222</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>126.858111111111</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -3072,6 +4622,16 @@
           <t>80</t>
         </is>
       </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>35.4132555555555</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>127.3925</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -3089,6 +4649,16 @@
           <t>88</t>
         </is>
       </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>35.8005749999999</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>126.882752777777</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -3106,6 +4676,16 @@
           <t>89</t>
         </is>
       </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>35.8429694444444</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>127.149597222222</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -3123,6 +4703,16 @@
           <t>88</t>
         </is>
       </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>35.7887194444444</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>127.426966666666</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -3140,6 +4730,16 @@
           <t>93</t>
         </is>
       </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>36.0038277777777</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>127.662866666666</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -3157,6 +4757,16 @@
           <t>85</t>
         </is>
       </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>35.6442972222222</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>127.5233</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -3174,6 +4784,16 @@
           <t>84</t>
         </is>
       </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>35.6080638888888</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>127.284752777777</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -3191,6 +4811,16 @@
           <t>79</t>
         </is>
       </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>35.3713888888888</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>127.139630555555</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -3208,6 +4838,16 @@
           <t>80</t>
         </is>
       </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>35.4327388888888</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>126.704108333333</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -3225,6 +4865,16 @@
           <t>87</t>
         </is>
       </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>35.7285333333333</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>126.735677777777</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -3242,6 +4892,16 @@
           <t>67</t>
         </is>
       </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>34.8087888888888</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>126.394419444444</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -3259,6 +4919,16 @@
           <t>66</t>
         </is>
       </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>34.7573111111111</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>127.664386111111</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -3276,6 +4946,16 @@
           <t>70</t>
         </is>
       </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>34.9476055555555</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>127.489330555555</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -3293,6 +4973,16 @@
           <t>71</t>
         </is>
       </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>35.0128388888888</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>126.712866666666</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -3310,6 +5000,16 @@
           <t>70</t>
         </is>
       </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>34.9375361111111</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>127.698177777777</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -3327,6 +5027,16 @@
           <t>78</t>
         </is>
       </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>35.318125</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>126.990163888888</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -3344,6 +5054,16 @@
           <t>77</t>
         </is>
       </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>35.2789555555555</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>127.294108333333</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -3361,6 +5081,16 @@
           <t>75</t>
         </is>
       </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>35.1994583333333</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>127.464933333333</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -3378,6 +5108,16 @@
           <t>62</t>
         </is>
       </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>34.6080694444444</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>127.287055555555</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -3395,6 +5135,16 @@
           <t>66</t>
         </is>
       </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>34.7683333333333</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>127.082088888888</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -3412,6 +5162,16 @@
           <t>72</t>
         </is>
       </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>35.0614805555555</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>126.988566666666</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -3429,6 +5189,16 @@
           <t>64</t>
         </is>
       </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>34.678525</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>126.909108333333</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -3446,6 +5216,16 @@
           <t>63</t>
         </is>
       </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>34.6389111111111</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>126.769197222222</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -3463,6 +5243,16 @@
           <t>61</t>
         </is>
       </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>34.5704361111111</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>126.601288888888</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -3480,6 +5270,16 @@
           <t>66</t>
         </is>
       </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>34.7969888888888</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>126.698619444444</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -3497,6 +5297,16 @@
           <t>71</t>
         </is>
       </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>34.9873694444444</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>126.4837</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -3514,6 +5324,16 @@
           <t>72</t>
         </is>
       </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>35.0627444444444</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>126.518619444444</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -3531,6 +5351,16 @@
           <t>77</t>
         </is>
       </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>35.2741666666666</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>126.514086111111</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -3548,6 +5378,16 @@
           <t>77</t>
         </is>
       </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>35.2988111111111</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>126.786975</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -3565,6 +5405,16 @@
           <t>56</t>
         </is>
       </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>34.3078527777777</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>126.757097222222</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -3582,6 +5432,16 @@
           <t>59</t>
         </is>
       </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>34.48375</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>126.265544444444</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -3599,6 +5459,16 @@
           <t>66</t>
         </is>
       </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>34.7898111111111</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>126.381730555555</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -3616,6 +5486,16 @@
           <t>94</t>
         </is>
       </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>36.0056861111111</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>129.361666666666</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -3633,6 +5513,16 @@
           <t>95</t>
         </is>
       </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>36.03885</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>129.367908333333</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -3650,6 +5540,16 @@
           <t>91</t>
         </is>
       </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>35.8531694444444</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>129.227022222222</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -3667,6 +5567,16 @@
           <t>96</t>
         </is>
       </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>36.1368972222222</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>128.1158</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -3684,6 +5594,16 @@
           <t>106</t>
         </is>
       </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>36.5654638888888</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>128.731622222222</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -3701,6 +5621,16 @@
           <t>96</t>
         </is>
       </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>36.11655</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>128.346777777777</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -3718,6 +5648,16 @@
           <t>111</t>
         </is>
       </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>36.8029361111111</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>128.626344444444</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -3735,6 +5675,16 @@
           <t>93</t>
         </is>
       </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>35.9700527777777</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>128.940775</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -3752,6 +5702,16 @@
           <t>102</t>
         </is>
       </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>36.4079694444444</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>128.161263888888</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -3769,6 +5729,16 @@
           <t>106</t>
         </is>
       </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>36.5836305555555</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>128.189019444444</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -3786,6 +5756,16 @@
           <t>90</t>
         </is>
       </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>35.8220888888888</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>128.743463888888</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -3803,6 +5783,16 @@
           <t>101</t>
         </is>
       </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>36.3497583333333</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>128.699363888888</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -3820,6 +5810,16 @@
           <t>103</t>
         </is>
       </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>36.4332916666666</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>129.0594</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -3837,6 +5837,16 @@
           <t>108</t>
         </is>
       </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>36.6642749999999</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>129.114622222222</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -3854,6 +5864,16 @@
           <t>103</t>
         </is>
       </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>36.4121027777777</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>129.368355555555</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -3871,6 +5891,16 @@
           <t>86</t>
         </is>
       </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>35.6443111111111</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>128.7362</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -3888,6 +5918,16 @@
           <t>87</t>
         </is>
       </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>35.7229861111111</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>128.265022222222</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -3905,6 +5945,16 @@
           <t>91</t>
         </is>
       </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>35.9162111111111</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>128.285152777777</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -3922,6 +5972,16 @@
           <t>93</t>
         </is>
       </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>35.9925472222222</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>128.403797222222</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -3939,6 +5999,16 @@
           <t>107</t>
         </is>
       </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>36.65495</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>128.455022222222</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -3956,6 +6026,16 @@
           <t>113</t>
         </is>
       </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>36.8902611111111</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>128.734875</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -3973,6 +6053,16 @@
           <t>115</t>
         </is>
       </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>36.9901861111111</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>129.402786111111</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -3990,6 +6080,16 @@
           <t>127</t>
         </is>
       </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>37.480575</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>130.903788888888</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -4007,6 +6107,16 @@
           <t>77</t>
         </is>
       </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>35.2540033</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>128.6401544</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -4024,6 +6134,16 @@
           <t>76</t>
         </is>
       </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>35.1983844</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>128.7029401</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -4041,6 +6161,16 @@
           <t>76</t>
         </is>
       </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>35.196874</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>128.567863</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -4058,6 +6188,16 @@
           <t>76</t>
         </is>
       </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>35.220932</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>128.579706</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -4075,6 +6215,16 @@
           <t>75</t>
         </is>
       </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>35.13306</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>128.710081</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -4092,6 +6242,16 @@
           <t>75</t>
         </is>
       </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>35.1770333333333</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>128.109999999999</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -4109,6 +6269,16 @@
           <t>68</t>
         </is>
       </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>34.8512583333333</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>128.435277777777</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -4126,6 +6296,16 @@
           <t>71</t>
         </is>
       </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>35.0002833333333</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>128.066777777777</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -4143,6 +6323,16 @@
           <t>77</t>
         </is>
       </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>35.2255055555555</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>128.891666666666</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -4160,6 +6350,16 @@
           <t>83</t>
         </is>
       </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>35.5007777777777</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>128.748944444444</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -4177,6 +6377,16 @@
           <t>69</t>
         </is>
       </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>34.8773583333333</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>128.623355555555</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -4194,6 +6404,16 @@
           <t>79</t>
         </is>
       </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>35.3319277777777</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>129.039411111111</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -4211,6 +6431,16 @@
           <t>78</t>
         </is>
       </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>35.3191194444444</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>128.263822222222</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -4228,6 +6458,16 @@
           <t>77</t>
         </is>
       </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>35.2694055555555</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>128.408708333333</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -4245,6 +6485,16 @@
           <t>83</t>
         </is>
       </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>35.5415361111111</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>128.494533333333</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -4262,6 +6512,16 @@
           <t>71</t>
         </is>
       </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>34.9699</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>128.324541666666</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -4279,6 +6539,16 @@
           <t>68</t>
         </is>
       </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>34.8345583333333</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>127.894466666666</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -4296,6 +6566,16 @@
           <t>73</t>
         </is>
       </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>35.0642027777777</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>127.753430555555</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -4313,6 +6593,16 @@
           <t>80</t>
         </is>
       </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>35.4124916666666</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>127.875619444444</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -4330,6 +6620,16 @@
           <t>82</t>
         </is>
       </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>35.5174694444444</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>127.727419444444</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -4347,6 +6647,16 @@
           <t>86</t>
         </is>
       </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>35.683625</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>127.911655555555</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -4364,6 +6674,16 @@
           <t>84</t>
         </is>
       </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>35.5636166666666</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>128.167930555555</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -4381,6 +6701,16 @@
           <t>38</t>
         </is>
       </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>33.4963111111111</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>126.533208333333</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -4398,6 +6728,16 @@
           <t>33</t>
         </is>
       </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>33.25235</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>126.512555555555</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -4415,6 +6755,16 @@
           <t>134</t>
         </is>
       </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>37.8785416666666</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>127.732311111111</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -4432,6 +6782,16 @@
           <t>122</t>
         </is>
       </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>37.3390833333333</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>127.922055555555</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -4449,6 +6809,16 @@
           <t>131</t>
         </is>
       </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>37.7491361111111</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>128.878497222222</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -4466,6 +6836,16 @@
           <t>127</t>
         </is>
       </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>37.5219305555555</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>129.116633333333</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -4483,6 +6863,16 @@
           <t>119</t>
         </is>
       </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>37.1612277777777</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>128.987997222222</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -4500,6 +6890,16 @@
           <t>141</t>
         </is>
       </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>38.204275</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>128.594166666666</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -4517,6 +6917,16 @@
           <t>125</t>
         </is>
       </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>37.4470861111111</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>129.167488888888</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -4534,6 +6944,16 @@
           <t>130</t>
         </is>
       </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>37.6944222222222</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>127.890841666666</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -4551,6 +6971,16 @@
           <t>125</t>
         </is>
       </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>37.4889583333333</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>127.987222222222</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -4568,6 +6998,16 @@
           <t>119</t>
         </is>
       </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>37.1808611111111</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>128.464019444444</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -4585,6 +7025,16 @@
           <t>123</t>
         </is>
       </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>37.3679166666666</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>128.392352777777</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -4602,6 +7052,16 @@
           <t>123</t>
         </is>
       </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>37.3778083333333</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>128.663086111111</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -4619,6 +7079,16 @@
           <t>139</t>
         </is>
       </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>38.1440555555555</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>127.315733333333</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -4636,6 +7106,16 @@
           <t>139</t>
         </is>
       </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>38.1034083333333</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>127.710355555555</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -4653,6 +7133,16 @@
           <t>139</t>
         </is>
       </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>38.1072916666666</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>127.992244444444</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -4670,6 +7160,16 @@
           <t>138</t>
         </is>
       </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>38.0669722222222</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>128.172697222222</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -4687,6 +7187,16 @@
           <t>145</t>
         </is>
       </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>38.3779611111111</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>128.470163888888</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -4702,6 +7212,16 @@
       <c r="C252" t="inlineStr">
         <is>
           <t>138</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>38.0728333333333</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>128.621355555555</t>
         </is>
       </c>
     </row>
